--- a/Data/Processing/2024-02-02/CAMS.xlsx
+++ b/Data/Processing/2024-02-02/CAMS.xlsx
@@ -2463,7 +2463,7 @@
         <v>45014</v>
       </c>
       <c r="B39">
-        <v>1996.29</v>
+        <v>1996.3</v>
       </c>
       <c r="C39">
         <v>2023.87</v>
@@ -2490,13 +2490,13 @@
         <v>1.36</v>
       </c>
       <c r="K39">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="L39">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="M39">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="N39">
         <v>1.87</v>
@@ -6522,7 +6522,7 @@
         <v>2292.77</v>
       </c>
       <c r="E120">
-        <v>2306.21</v>
+        <v>2306.22</v>
       </c>
       <c r="F120">
         <v>2308.98</v>
@@ -6552,7 +6552,7 @@
         <v>1.06</v>
       </c>
       <c r="O120">
-        <v>2200.193181818182</v>
+        <v>2200.193409090909</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>2329.29</v>
       </c>
       <c r="F121">
-        <v>2306.21</v>
+        <v>2306.22</v>
       </c>
       <c r="G121">
         <v>188890</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>12.75</v>
+        <v>12.74</v>
       </c>
       <c r="M121">
         <v>-1.5</v>
@@ -6602,7 +6602,7 @@
         <v>1.97</v>
       </c>
       <c r="O121">
-        <v>2205.1075</v>
+        <v>2205.107727272728</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>2.01</v>
       </c>
       <c r="O122">
-        <v>2210.241818181818</v>
+        <v>2210.242045454546</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>2.35</v>
       </c>
       <c r="O123">
-        <v>2213.712045454546</v>
+        <v>2213.712272727273</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>3.61</v>
       </c>
       <c r="O124">
-        <v>2216.426363636363</v>
+        <v>2216.426590909091</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>3.13</v>
       </c>
       <c r="O125">
-        <v>2218.966590909091</v>
+        <v>2218.966818181818</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>6.01</v>
       </c>
       <c r="O126">
-        <v>2223.045454545455</v>
+        <v>2223.045681818181</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1.9</v>
       </c>
       <c r="O127">
-        <v>2227.667727272727</v>
+        <v>2227.667954545454</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>1.75</v>
       </c>
       <c r="O128">
-        <v>2232.741590909091</v>
+        <v>2232.741818181818</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>1.13</v>
       </c>
       <c r="O129">
-        <v>2238.228636363636</v>
+        <v>2238.228863636364</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1.17</v>
       </c>
       <c r="O130">
-        <v>2244.399772727273</v>
+        <v>2244.4</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>3.51</v>
       </c>
       <c r="O131">
-        <v>2251.406363636364</v>
+        <v>2251.406590909091</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>2.73</v>
       </c>
       <c r="O132">
-        <v>2259.358636363636</v>
+        <v>2259.358863636363</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1.98</v>
       </c>
       <c r="O133">
-        <v>2267.717045454545</v>
+        <v>2267.717272727273</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.52</v>
       </c>
       <c r="O134">
-        <v>2275.880227272728</v>
+        <v>2275.880454545455</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>3</v>
       </c>
       <c r="O135">
-        <v>2283.195454545455</v>
+        <v>2283.195681818182</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>1.9</v>
       </c>
       <c r="O136">
-        <v>2290.871136363636</v>
+        <v>2290.871363636364</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>2.28</v>
       </c>
       <c r="O137">
-        <v>2298.287272727273</v>
+        <v>2298.2875</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>3.68</v>
       </c>
       <c r="O138">
-        <v>2304.352954545454</v>
+        <v>2304.353181818182</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>2.31</v>
       </c>
       <c r="O139">
-        <v>2310.143863636364</v>
+        <v>2310.144090909091</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>3.39</v>
       </c>
       <c r="O140">
-        <v>2315.511818181818</v>
+        <v>2315.512045454545</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>2.46</v>
       </c>
       <c r="O141">
-        <v>2320.857045454545</v>
+        <v>2320.857272727273</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>1.33</v>
       </c>
       <c r="O142">
-        <v>2326.883409090909</v>
+        <v>2326.883636363636</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>1.21</v>
       </c>
       <c r="O143">
-        <v>2332.718409090909</v>
+        <v>2332.718636363636</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>1.63</v>
       </c>
       <c r="O144">
-        <v>2336.696818181818</v>
+        <v>2336.697045454545</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1.49</v>
       </c>
       <c r="O145">
-        <v>2339.183409090909</v>
+        <v>2339.183636363636</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>4.06</v>
       </c>
       <c r="O146">
-        <v>2343.178863636364</v>
+        <v>2343.179090909091</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>2.3</v>
       </c>
       <c r="O147">
-        <v>2348.126363636364</v>
+        <v>2348.126590909091</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>2.6</v>
       </c>
       <c r="O148">
-        <v>2351.755</v>
+        <v>2351.755227272727</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>1.75</v>
       </c>
       <c r="O149">
-        <v>2356.225454545454</v>
+        <v>2356.225681818182</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>5.62</v>
       </c>
       <c r="O150">
-        <v>2364.758181818182</v>
+        <v>2364.758409090909</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>5.94</v>
       </c>
       <c r="O151">
-        <v>2373.192727272728</v>
+        <v>2373.192954545455</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>3.64</v>
       </c>
       <c r="O152">
-        <v>2381.731818181818</v>
+        <v>2381.732045454546</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>2.97</v>
       </c>
       <c r="O153">
-        <v>2390.631590909091</v>
+        <v>2390.631818181818</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>1.98</v>
       </c>
       <c r="O154">
-        <v>2398.392272727272</v>
+        <v>2398.3925</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>3.31</v>
       </c>
       <c r="O155">
-        <v>2404.834772727273</v>
+        <v>2404.835</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>2.55</v>
       </c>
       <c r="O156">
-        <v>2411.386590909091</v>
+        <v>2411.386818181818</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>2.53</v>
       </c>
       <c r="O157">
-        <v>2416.804772727272</v>
+        <v>2416.805</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>2.77</v>
       </c>
       <c r="O158">
-        <v>2421.974772727273</v>
+        <v>2421.975</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>2.21</v>
       </c>
       <c r="O159">
-        <v>2426.856818181818</v>
+        <v>2426.857045454545</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>1.39</v>
       </c>
       <c r="O160">
-        <v>2430.941363636364</v>
+        <v>2430.941590909091</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>3.17</v>
       </c>
       <c r="O161">
-        <v>2434.53</v>
+        <v>2434.530227272727</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>2.18</v>
       </c>
       <c r="O162">
-        <v>2437.423181818182</v>
+        <v>2437.423409090909</v>
       </c>
       <c r="P162">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>3.6</v>
       </c>
       <c r="O163">
-        <v>2441.803409090909</v>
+        <v>2441.803636363636</v>
       </c>
       <c r="P163">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>1.83</v>
       </c>
       <c r="O166">
-        <v>2451.709545454546</v>
+        <v>2451.709545454545</v>
       </c>
       <c r="P166">
         <v>1</v>
@@ -9152,7 +9152,7 @@
         <v>2.75</v>
       </c>
       <c r="O172">
-        <v>2468.357727272727</v>
+        <v>2468.357727272728</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>1.9</v>
       </c>
       <c r="O181">
-        <v>2463.898181818182</v>
+        <v>2463.898181818181</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>1.86</v>
       </c>
       <c r="O189">
-        <v>2454.268636363636</v>
+        <v>2454.268636363637</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <v>3.22</v>
       </c>
       <c r="O191">
-        <v>2451.546363636364</v>
+        <v>2451.546363636363</v>
       </c>
       <c r="P191">
         <v>1</v>
@@ -11252,7 +11252,7 @@
         <v>2.37</v>
       </c>
       <c r="O214">
-        <v>2601.547727272728</v>
+        <v>2601.547727272727</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>1.49</v>
       </c>
       <c r="O232">
-        <v>2721.108181818181</v>
+        <v>2721.108181818182</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -12601,7 +12601,7 @@
         <v>2.33</v>
       </c>
       <c r="O233">
-        <v>2730.632045454546</v>
+        <v>2730.632045454545</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>2.57</v>
       </c>
       <c r="O236">
-        <v>2754.551590909091</v>
+        <v>2754.55159090909</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>4.4</v>
       </c>
       <c r="O241">
-        <v>2748.389772727272</v>
+        <v>2748.389772727273</v>
       </c>
       <c r="P241">
         <v>1</v>
@@ -14042,7 +14042,7 @@
         <v>1.96</v>
       </c>
       <c r="O247">
-        <v>2753.995454545454</v>
+        <v>2753.995454545455</v>
       </c>
       <c r="P247">
         <v>0</v>
